--- a/costOfIngredientsXStore.xlsx
+++ b/costOfIngredientsXStore.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BirdBoxTreats\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0D8E8-E33F-4E1E-9BEF-D040497FE88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1BB0F-94D2-4B30-8239-07A7B21097F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2891CFC9-C3CB-4C06-9489-D91A79C12823}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2891CFC9-C3CB-4C06-9489-D91A79C12823}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw IngredientXStore" sheetId="1" r:id="rId1"/>
+    <sheet name="IngredientXStorePerOz(Deriveds)" sheetId="3" r:id="rId2"/>
+    <sheet name="Check List" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
   <si>
     <t>ingredients</t>
   </si>
@@ -174,12 +197,6 @@
     <t xml:space="preserve">Amazon(brand) </t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Amount (oz or floz)</t>
-  </si>
-  <si>
     <t>bulk whole wheat</t>
   </si>
   <si>
@@ -376,16 +393,69 @@
   </si>
   <si>
     <t>MonkFruitwithErythritol</t>
+  </si>
+  <si>
+    <t>Adams Peanut Butter</t>
+  </si>
+  <si>
+    <t>Amazon(brand) 2(perOz)</t>
+  </si>
+  <si>
+    <t>Fred Meyers2(perOz)</t>
+  </si>
+  <si>
+    <t>Winco2(perOz)</t>
+  </si>
+  <si>
+    <t>Winco Bulk2(perOz)</t>
+  </si>
+  <si>
+    <t>Trader Joes2(perOz)</t>
+  </si>
+  <si>
+    <t>Albertsons2(Ozs)</t>
+  </si>
+  <si>
+    <t>Amazon(brand) 2Ozs</t>
+  </si>
+  <si>
+    <t>Fred Meyers2Ozs</t>
+  </si>
+  <si>
+    <t>Winco2Ozs</t>
+  </si>
+  <si>
+    <t>Winco Bulk2Ozs</t>
+  </si>
+  <si>
+    <t>Trader Joes2Ozs</t>
+  </si>
+  <si>
+    <t>Albertsons2($perOz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -459,22 +529,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -485,6 +572,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB901E3B-E883-4330-AADD-36D5425E7286}" name="Table2" displayName="Table2" ref="A1:M67" totalsRowShown="0">
+  <autoFilter ref="A1:M67" xr:uid="{FB901E3B-E883-4330-AADD-36D5425E7286}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1FC9BAD5-456E-48C7-9F44-0691CFDE683A}" name="ingredients"/>
+    <tableColumn id="2" xr3:uid="{638ECDDF-A8FA-4CD6-83CC-BB0CB7E4E586}" name="Albertsons" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{0728F83B-F590-46F0-BD80-F760152BFCB2}" name="Albertsons2(Ozs)"/>
+    <tableColumn id="4" xr3:uid="{7F7A556C-6426-4CF4-A291-47B35E3EE10A}" name="Amazon(brand) "/>
+    <tableColumn id="5" xr3:uid="{CC219B0C-1B35-4BD9-8EE7-3A1591B5F320}" name="Amazon(brand) 2Ozs"/>
+    <tableColumn id="6" xr3:uid="{B4E6480D-697D-4C85-BE9C-8A003789F06D}" name="Fred Meyers"/>
+    <tableColumn id="7" xr3:uid="{E0B33ACA-F77D-4E0C-8639-21847F0C68FA}" name="Fred Meyers2Ozs"/>
+    <tableColumn id="8" xr3:uid="{04C87782-CB51-4013-9E3B-C4B2C676A49F}" name="Winco"/>
+    <tableColumn id="9" xr3:uid="{D8B0F588-D1A8-49AE-AA05-F6DB653A9AA0}" name="Winco2Ozs"/>
+    <tableColumn id="10" xr3:uid="{612ADF6A-BEA3-463A-9430-292537C43A3D}" name="Winco Bulk"/>
+    <tableColumn id="11" xr3:uid="{910DFED2-ADDC-4B26-A698-099659BA3E3A}" name="Winco Bulk2Ozs"/>
+    <tableColumn id="12" xr3:uid="{87FEB4E6-C88C-42DC-A5C2-1C335B8C5876}" name="Trader Joes"/>
+    <tableColumn id="13" xr3:uid="{80F71E08-E921-4B7B-942F-4E98A414311D}" name="Trader Joes2Ozs"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,91 +913,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6126219D-0115-405E-B40B-422AC452EF52}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
       <c r="F1" t="s">
         <v>41</v>
       </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
       <c r="H1" t="s">
         <v>42</v>
       </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
       </c>
       <c r="L1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <f>80*16</f>
+        <v>1280</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <f xml:space="preserve"> IF(ISBLANK(C2), 0, (B2/C2))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> IF(ISBLANK(E2 ), 0, D2 /E2 )</f>
+        <v>1.328125E-2</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> IF(ISBLANK(G2 ), 0, F2 /G2 )</f>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="R2">
+        <f xml:space="preserve"> IF(ISBLANK(I2 ), 0, H2 /I2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f xml:space="preserve"> IF(ISBLANK(K2 ), 0, J2 /K2 )</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f xml:space="preserve"> IF(ISBLANK(M2 ), 0, L2 /M2 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -900,19 +1064,54 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <f>80*16</f>
-        <v>1280</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="G3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="0" xml:space="preserve"> IF(ISBLANK(C3), 0, (B3/C3))</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="1" xml:space="preserve"> IF(ISBLANK(E3 ), 0, D3 /E3 )</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="2" xml:space="preserve"> IF(ISBLANK(G3 ), 0, F3 /G3 )</f>
+        <v>5.3749999999999999E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="3" xml:space="preserve"> IF(ISBLANK(I3 ), 0, H3 /I3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="4" xml:space="preserve"> IF(ISBLANK(K3 ), 0, J3 /K3 )</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="5" xml:space="preserve"> IF(ISBLANK(M3 ), 0, L3 /M3 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -921,538 +1120,1174 @@
         <v>80</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G4">
         <v>80</v>
       </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
       <c r="I4">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>4.5</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>4.5999999999999996</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>9.5</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>9.1</v>
+      </c>
+      <c r="L5">
+        <v>6.99</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.59375</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>0.43687500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>9.5</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>9.1</v>
+        <v>0.7</v>
       </c>
       <c r="K6">
         <v>16</v>
       </c>
-      <c r="L6">
-        <v>6.99</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>107</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>3.9</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="K7">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>0.21875</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>5.5</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>3.9</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="J8">
-        <v>3.5</v>
+        <v>0.88</v>
       </c>
       <c r="K8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4.8</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>0.88</v>
+        <v>0.48</v>
       </c>
       <c r="K9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4.8</v>
-      </c>
-      <c r="G10">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>0.48</v>
-      </c>
-      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11"/>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>1.72*16</f>
+        <v>27.52</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11">
-        <v>37</v>
-      </c>
-      <c r="E11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.54505813953488369</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12"/>
       <c r="D12">
-        <v>15</v>
+        <v>22.8</v>
       </c>
       <c r="E12">
-        <f>1.72*16</f>
-        <v>27.52</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f>2.2*16</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.64772727272727271</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13"/>
       <c r="D13">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <f>2.2*16</f>
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14"/>
       <c r="D14">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>0.82</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>5.1249999999999997E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="B15"/>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="C16">
-        <v>64</v>
-      </c>
       <c r="F16">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>0.82</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>0.1125</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C17">
+        <v>1.25</v>
+      </c>
+      <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>2.37</v>
+      </c>
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>3.8</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>2.7</v>
-      </c>
       <c r="I17">
-        <v>8</v>
-      </c>
-      <c r="J17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>1.8987341772151898</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0.97560975609756106</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C18">
         <v>1.8</v>
       </c>
-      <c r="K17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="C18">
-        <v>1.25</v>
-      </c>
       <c r="F18">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="G18">
-        <v>2.37</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>7.6363636363636358</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>3.6363636363636362</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1.75</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>1.9</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>5.7894736842105265</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="C19">
-        <v>1.8</v>
-      </c>
-      <c r="F19">
-        <v>8.4</v>
-      </c>
-      <c r="G19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
       </c>
       <c r="C20">
+        <v>1.25</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="C21">
         <v>1.75</v>
       </c>
-      <c r="F20">
+      <c r="F21">
+        <v>8.5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="B24" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="F24">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>1.25</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="C22">
-        <v>1.75</v>
-      </c>
-      <c r="F22">
-        <v>8.5</v>
-      </c>
-      <c r="G22">
+      <c r="H24">
+        <v>1.7</v>
+      </c>
+      <c r="I24">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>6.5384615384615388E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="1">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
+      <c r="I26">
         <v>16</v>
       </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="C25">
-        <v>26</v>
-      </c>
-      <c r="F25">
-        <v>1.9</v>
-      </c>
-      <c r="H25">
-        <v>1.7</v>
-      </c>
-      <c r="I25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1.3</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0.21875</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>16</v>
-      </c>
-      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>9.5</v>
+      </c>
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>1.3</v>
-      </c>
-      <c r="K27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>9.5</v>
-      </c>
-      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>6.6</v>
+      </c>
+      <c r="I28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>2.8125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>3.3</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="C29">
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>45</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-      <c r="H29">
-        <v>6.6</v>
-      </c>
-      <c r="I29">
+      <c r="F30">
+        <v>9.5</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
       <c r="H30">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
         <v>6.5</v>
@@ -1460,6 +2295,12 @@
       <c r="C31">
         <v>2</v>
       </c>
+      <c r="D31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
       <c r="F31">
         <v>9.5</v>
       </c>
@@ -1472,153 +2313,339 @@
       <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="H33">
         <v>4</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34">
         <v>16</v>
       </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>12</v>
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
       </c>
       <c r="H34">
         <v>4</v>
       </c>
       <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>0.34375</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C36">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35">
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>6.2</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>64</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>64</v>
+      </c>
+      <c r="J37">
+        <v>0.77</v>
+      </c>
+      <c r="K37">
         <v>16</v>
       </c>
-      <c r="F35">
-        <v>5.5</v>
-      </c>
-      <c r="G35">
-        <v>16</v>
-      </c>
-      <c r="H35">
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>4.8125000000000001E-2</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="F38">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>6.2</v>
-      </c>
-      <c r="I37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>64</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
       <c r="G38">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J38">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="K38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>0.13437499999999999</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.10312499999999999</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>5.8125000000000003E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -1626,323 +2653,773 @@
       <c r="G39">
         <v>32</v>
       </c>
-      <c r="H39">
-        <v>3.3</v>
-      </c>
-      <c r="I39">
-        <v>32</v>
-      </c>
       <c r="J39">
         <v>0.93</v>
       </c>
       <c r="K39">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>5.8125000000000003E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>27.7</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>5.54</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>7.1599999999999993</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D42">
+        <v>9.5</v>
+      </c>
+      <c r="E42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F42">
+        <v>9.5</v>
+      </c>
+      <c r="G42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H42">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I42">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>1.1340206185567012</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>0.97938144329896915</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>0.97938144329896915</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>0.90721649484536093</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>6.5</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>0.5625</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>21.5</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>48</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>8.9</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11</v>
+      </c>
+      <c r="C49">
         <v>23</v>
       </c>
-      <c r="F40">
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50">
+        <v>14.7</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>32</v>
-      </c>
-      <c r="J40">
-        <v>0.93</v>
-      </c>
-      <c r="K40">
+      <c r="G51">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <v>3.8</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>13.2</v>
+      </c>
+      <c r="I52">
+        <v>128</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>0.10312499999999999</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>48</v>
+      </c>
+      <c r="H53">
+        <v>4.25</v>
+      </c>
+      <c r="I53">
+        <v>48</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="3"/>
+        <v>8.8541666666666671E-2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54">
+        <v>4.5</v>
+      </c>
+      <c r="G54">
+        <v>48</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>128</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="3"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12</v>
+      </c>
+      <c r="C56">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>27.7</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>10.8</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56">
+        <v>6.1</v>
+      </c>
+      <c r="I56">
+        <v>16</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="3"/>
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>48</v>
+      </c>
+      <c r="F57">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D43">
-        <v>9.5</v>
-      </c>
-      <c r="E43">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F43">
-        <v>9.5</v>
-      </c>
-      <c r="G43">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H43">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I43">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44">
-        <v>16</v>
-      </c>
-      <c r="E44">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>27</v>
-      </c>
-      <c r="E45">
-        <v>48</v>
-      </c>
-      <c r="F45">
-        <v>6.5</v>
-      </c>
-      <c r="G45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47">
-        <v>21.5</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48">
-        <v>26</v>
-      </c>
-      <c r="E48">
-        <v>48</v>
-      </c>
-      <c r="F48">
-        <v>15</v>
-      </c>
-      <c r="G48">
-        <v>16</v>
-      </c>
-      <c r="H48">
-        <v>8.9</v>
-      </c>
-      <c r="I48">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50">
-        <v>5.5</v>
-      </c>
-      <c r="E50">
-        <v>15</v>
-      </c>
-      <c r="F50">
-        <v>6</v>
-      </c>
-      <c r="G50">
-        <v>14</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="1">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>48</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52">
-        <v>48</v>
-      </c>
-      <c r="H52">
-        <v>3.8</v>
-      </c>
-      <c r="I52">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53">
-        <v>40</v>
-      </c>
-      <c r="H53">
-        <v>13.2</v>
-      </c>
-      <c r="I53">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>48</v>
-      </c>
-      <c r="H54">
-        <v>4.25</v>
-      </c>
-      <c r="I54">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55">
-        <v>4.5</v>
-      </c>
-      <c r="G55">
-        <v>48</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56">
-        <v>7</v>
-      </c>
-      <c r="G56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G57">
         <v>36</v>
       </c>
-      <c r="B57" s="1">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>30</v>
-      </c>
-      <c r="F57">
-        <v>10.8</v>
-      </c>
-      <c r="G57">
-        <v>16</v>
-      </c>
-      <c r="H57">
-        <v>6.1</v>
-      </c>
-      <c r="I57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1958,10 +3435,34 @@
       <c r="G58">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>6</v>
@@ -1981,8 +3482,32 @@
       <c r="I59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="3"/>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1992,8 +3517,32 @@
       <c r="G60">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>0.46875</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2003,8 +3552,32 @@
       <c r="G61">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -2014,10 +3587,34 @@
       <c r="G62">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>18.5</v>
@@ -2043,10 +3640,34 @@
       <c r="K63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>1.15625</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>1.1875</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="4"/>
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J64">
         <v>1.4</v>
@@ -2054,10 +3675,34 @@
       <c r="K64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="4"/>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J65">
         <v>0.48</v>
@@ -2065,10 +3710,34 @@
       <c r="K65">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J66">
         <v>0.57999999999999996</v>
@@ -2076,10 +3745,34 @@
       <c r="K66">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="4"/>
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J67">
         <v>2.48</v>
@@ -2087,18 +3780,66 @@
       <c r="K67">
         <v>16</v>
       </c>
+      <c r="O67">
+        <f t="shared" ref="O67" si="6" xml:space="preserve"> IF(ISBLANK(C67), 0, (B67/C67))</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67" si="7" xml:space="preserve"> IF(ISBLANK(E67 ), 0, D67 /E67 )</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67" si="8" xml:space="preserve"> IF(ISBLANK(G67 ), 0, F67 /G67 )</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67" si="9" xml:space="preserve"> IF(ISBLANK(I67 ), 0, H67 /I67)</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67" si="10" xml:space="preserve"> IF(ISBLANK(K67 ), 0, J67 /K67 )</f>
+        <v>0.155</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67" si="11" xml:space="preserve"> IF(ISBLANK(M67 ), 0, L67 /M67 )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="e" cm="1">
+        <f t="array" ref="B70">_xlfn.ANCHORARRAY(B2)</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC1082A-787D-4D9A-B21B-DCDC6BC8A2C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AF89C1-4933-4CC3-95FA-DB9F1B768BFE}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2159,7 +3900,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2173,7 +3914,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2187,7 +3928,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2213,7 +3954,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2227,7 +3968,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2236,7 +3977,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2250,7 +3991,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2264,7 +4005,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2330,7 +4071,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2344,7 +4085,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2366,19 +4107,19 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2395,7 +4136,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2405,7 +4146,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2415,7 +4156,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2427,19 +4168,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2449,7 +4190,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2459,7 +4200,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2469,12 +4210,12 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2505,7 +4246,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
@@ -2515,7 +4256,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="2"/>
@@ -2527,7 +4268,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="2"/>
@@ -2539,7 +4280,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,19 +4290,19 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="2"/>
@@ -2571,7 +4312,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="2"/>
@@ -2583,7 +4324,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="2"/>
@@ -2595,7 +4336,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2"/>
@@ -2607,7 +4348,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="2"/>
@@ -2619,7 +4360,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,82 +4368,82 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
